--- a/Movies/BB.xlsx
+++ b/Movies/BB.xlsx
@@ -15,12 +15,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$43</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Source</t>
   </si>
@@ -76,7 +75,43 @@
     <t>Trapped by Boston Blackie (1948)</t>
   </si>
   <si>
-    <t>Boston Blackie's Chinese Adventure (1949)</t>
+    <t>Boston Blackie's Chinese Venture (1949)</t>
+  </si>
+  <si>
+    <t>http://hugefiles.net/dnrx2aeuww0w</t>
+  </si>
+  <si>
+    <t>http://hugefiles.net/vgaof5yh1pfi</t>
+  </si>
+  <si>
+    <t>http://hugefiles.net/0zihj46z4jex</t>
+  </si>
+  <si>
+    <t>http://hugefiles.net/egp60w73ew6g</t>
+  </si>
+  <si>
+    <t>http://hugefiles.net/hjiwni02sby9</t>
+  </si>
+  <si>
+    <t>http://hugefiles.net/i26ur3hgtffv</t>
+  </si>
+  <si>
+    <t>http://www.uploadc.com/whaqx0v0ghx5/One_Mysterious_Night_(1944).avi</t>
+  </si>
+  <si>
+    <t>http://gorillavid.in/1qouk3se9j5z</t>
+  </si>
+  <si>
+    <t>https://allmyvideos.net/h0oz978lyoj0</t>
+  </si>
+  <si>
+    <t>http://thefile.me/aqw3m2pk7ml5</t>
+  </si>
+  <si>
+    <t>http://gorillavid.in/81tc7toxrboo</t>
+  </si>
+  <si>
+    <t>http://gorillavid.in/o2jgsmujrwnb</t>
   </si>
 </sst>
 </file>
@@ -456,7 +491,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -464,7 +499,7 @@
     <col min="1" max="1" width="44.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="48.85546875" customWidth="1"/>
+    <col min="4" max="4" width="67.85546875" customWidth="1"/>
     <col min="5" max="5" width="49" customWidth="1"/>
   </cols>
   <sheetData>
@@ -491,7 +526,9 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
@@ -500,7 +537,9 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
@@ -508,7 +547,12 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
@@ -516,7 +560,9 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
@@ -524,7 +570,9 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
@@ -533,7 +581,9 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
@@ -541,7 +591,9 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
@@ -557,7 +609,9 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
@@ -565,7 +619,9 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
@@ -581,7 +637,9 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
@@ -597,7 +655,9 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1"/>
@@ -768,8 +828,18 @@
       <c r="D43" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D10" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="D5" r:id="rId6"/>
+    <hyperlink ref="D7" r:id="rId7"/>
+    <hyperlink ref="D8" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="80" orientation="landscape" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/Movies/BB.xlsx
+++ b/Movies/BB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Source</t>
   </si>
@@ -96,9 +96,6 @@
     <t>http://hugefiles.net/i26ur3hgtffv</t>
   </si>
   <si>
-    <t>http://www.uploadc.com/whaqx0v0ghx5/One_Mysterious_Night_(1944).avi</t>
-  </si>
-  <si>
     <t>http://gorillavid.in/1qouk3se9j5z</t>
   </si>
   <si>
@@ -112,6 +109,24 @@
   </si>
   <si>
     <t>http://gorillavid.in/o2jgsmujrwnb</t>
+  </si>
+  <si>
+    <t>http://gorillavid.in/t66bk3dgplfr</t>
+  </si>
+  <si>
+    <t>http://gorillavid.in/0t833jmgvia1</t>
+  </si>
+  <si>
+    <t>http://www.firedrive.com/file/58E7FB293EBFDBCC</t>
+  </si>
+  <si>
+    <t>http://www.firedrive.com/file/2CB8E641D2EF9CD6</t>
+  </si>
+  <si>
+    <t>http://movreel.com/iyqdo062oht9.html</t>
+  </si>
+  <si>
+    <t>URL3</t>
   </si>
 </sst>
 </file>
@@ -488,10 +503,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -501,9 +516,10 @@
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="67.85546875" customWidth="1"/>
     <col min="5" max="5" width="49" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -519,8 +535,11 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -529,9 +548,11 @@
       <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -540,8 +561,11 @@
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -551,10 +575,10 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -564,7 +588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -575,7 +599,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -585,63 +609,67 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -649,17 +677,17 @@
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -836,10 +864,9 @@
     <hyperlink ref="D4" r:id="rId5"/>
     <hyperlink ref="D5" r:id="rId6"/>
     <hyperlink ref="D7" r:id="rId7"/>
-    <hyperlink ref="D8" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" orientation="landscape" r:id="rId9"/>
+  <pageSetup scale="80" orientation="landscape" r:id="rId8"/>
 </worksheet>
 </file>
 
